--- a/Excel_files/concrete.xlsx
+++ b/Excel_files/concrete.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Галина\Desktop\СППД ИТД\БЕТОН\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Artsiom_Rachok\GitHub\GaliyaProject\Excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CFBDFF-9822-43CA-84CF-89D443B5ADBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FC0C06-0D1F-4713-9228-5A290B8725C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E565ED7C-69CA-45C8-A4D0-BC1CC305978B}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="9960" xr2:uid="{E565ED7C-69CA-45C8-A4D0-BC1CC305978B}"/>
   </bookViews>
   <sheets>
     <sheet name="concrete" sheetId="1" r:id="rId1"/>
@@ -268,18 +268,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -289,24 +293,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -322,9 +315,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -362,7 +355,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -468,7 +461,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -610,7 +603,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -621,10 +614,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A2:I7"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -638,105 +631,97 @@
     <col min="9" max="9" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="A2" s="3">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2">
+        <v>45580</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2">
         <v>12</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>27</v>
-      </c>
-      <c r="B4" s="4">
-        <v>45580</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="str">
+      <c r="E2" t="str">
         <f>'!_ПРОТОКОЛ'!K8</f>
         <v>В20</v>
       </c>
-      <c r="F4">
+      <c r="F2">
         <f>'!_ПРОТОКОЛ'!L8</f>
         <v>26.2</v>
       </c>
-      <c r="G4">
+      <c r="G2">
         <f>'!_ПРОТОКОЛ'!F8</f>
         <v>71</v>
       </c>
-      <c r="H4" t="str">
+      <c r="H2" t="str">
         <f>'!_ПРОТОКОЛ'!G8</f>
         <v>В20</v>
       </c>
-      <c r="I4">
+      <c r="I2">
         <f>'!_ПРОТОКОЛ'!H8</f>
         <v>18.3</v>
       </c>
     </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>28</v>
+      </c>
+      <c r="B3" s="2">
+        <f>'!_ПРОТОКОЛ'!C7</f>
+        <v>45582</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>37</v>
+      </c>
+      <c r="B4" s="2">
+        <f>'!_ПРОТОКОЛ'!C9</f>
+        <v>45605</v>
+      </c>
+    </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>28</v>
-      </c>
-      <c r="B5" s="4">
-        <f>'!_ПРОТОКОЛ'!C7</f>
-        <v>45582</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>37</v>
-      </c>
-      <c r="B6" s="4">
-        <f>'!_ПРОТОКОЛ'!C9</f>
-        <v>45605</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7">
         <v>38</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B5" s="2">
         <f>'!_ПРОТОКОЛ'!C10</f>
         <v>45621</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:I2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -752,28 +737,28 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="14.5546875" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="10.109375" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="2" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -782,55 +767,49 @@
       <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="J3" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D4" s="10"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="15"/>
-      <c r="J4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="7"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="16"/>
+      <c r="D5" s="5"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="16"/>
+      <c r="D6" s="5"/>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -839,28 +818,28 @@
       <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>45582</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="2">
         <v>45589</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7">
         <v>73</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="12">
         <v>19.100000000000001</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="2">
         <v>45610</v>
       </c>
       <c r="K7" t="s">
@@ -874,28 +853,28 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>45580</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="2">
         <v>45587</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8">
         <v>71</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="8">
         <v>18.3</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="2">
         <v>45608</v>
       </c>
       <c r="K8" t="s">
@@ -909,28 +888,28 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <v>45605</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="2">
         <v>45612</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9">
         <v>74</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="8">
         <v>14.5</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="2">
         <v>45633</v>
       </c>
       <c r="K9" t="s">
@@ -941,22 +920,20 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <v>45621</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="2">
         <v>45617</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="22" t="s">
+      <c r="H10" s="8"/>
+      <c r="I10" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="2">
         <v>45638</v>
       </c>
       <c r="K10" t="s">
@@ -967,60 +944,39 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="16"/>
+      <c r="D11" s="5"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="16"/>
+      <c r="D12" s="5"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="16"/>
+      <c r="D13" s="5"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="16"/>
+      <c r="D14" s="5"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="16"/>
+      <c r="D15" s="5"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="16"/>
+      <c r="D16" s="5"/>
+      <c r="H16" s="8"/>
     </row>
     <row r="17" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="16"/>
+      <c r="D17" s="5"/>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D18" s="17"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="19"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
